--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="29680" windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1189,8 +1189,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Animal/</v>
       </c>
       <c r="E3" s="12" t="str">
-        <f>G1&amp;B3&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Animal/</v>
+        <f>G1&amp;B3&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Animal.webp</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:5">
@@ -1208,8 +1208,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Ocean/</v>
       </c>
       <c r="E4" s="12" t="str">
-        <f>G1&amp;B4&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Ocean/</v>
+        <f>G1&amp;B4&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Ocean.webp</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:5">
@@ -1227,8 +1227,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Scenic/</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f>G1&amp;B5&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Scenic/</v>
+        <f>G1&amp;B5&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Scenic.webp</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:5">
@@ -1246,8 +1246,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/AI/</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f>G1&amp;B6&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/AI/</v>
+        <f>G1&amp;B6&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/AI.webp</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:5">
@@ -1265,8 +1265,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Girl/</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f>G1&amp;B7&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Girl/</v>
+        <f>G1&amp;B7&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Girl.webp</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:5">
@@ -1284,8 +1284,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Home/</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f>G1&amp;B8&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Home/</v>
+        <f>G1&amp;B8&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Home.webp</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:5">
@@ -1303,8 +1303,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Game/</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f>G1&amp;B9&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Game/</v>
+        <f>G1&amp;B9&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Game.webp</v>
       </c>
     </row>
     <row r="10" ht="36" spans="1:5">
@@ -1322,8 +1322,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Christmas/</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>G1&amp;B10&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Christmas/</v>
+        <f>G1&amp;B10&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Christmas.webp</v>
       </c>
     </row>
     <row r="11" ht="36" spans="1:5">
@@ -1341,8 +1341,8 @@
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/GodJesus/</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f>G1&amp;B11&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/GodJesus/</v>
+        <f>G1&amp;B11&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/GodJesus.webp</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29680" windowHeight="15180"/>
+    <workbookView windowWidth="29420" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>Thumbnail</t>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>Animal</t>
@@ -1118,10 +1118,10 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29420" windowHeight="10860"/>
+    <workbookView windowWidth="23660" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>index</t>
   </si>
   <si>
-    <t xml:space="preserve">N </t>
+    <t>N</t>
   </si>
   <si>
     <t>C</t>
@@ -1121,7 +1121,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>编号</t>
   </si>
@@ -35,9 +35,15 @@
     <t>名称</t>
   </si>
   <si>
+    <t>开始编号</t>
+  </si>
+  <si>
     <t>图片数量</t>
   </si>
   <si>
+    <t>需要的钻石数量</t>
+  </si>
+  <si>
     <t>图片目录</t>
   </si>
   <si>
@@ -56,9 +62,15 @@
     <t>N</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -93,6 +105,9 @@
   </si>
   <si>
     <t>Game</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>Christmas</t>
@@ -768,29 +783,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,25 +1131,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.3035714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="68.3035714285714" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.6964285714286" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="68.3035714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="68.3035714285714" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.6964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
+    <row r="1" ht="18" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1144,211 +1159,251 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:5">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="1:7">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="14" t="str">
+        <f>H1&amp;B3&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Animal/</v>
+      </c>
+      <c r="G3" s="14" t="str">
+        <f>I1&amp;B3&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Animal.webp</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:7">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="14" t="str">
+        <f>H1&amp;B4&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Ocean/</v>
+      </c>
+      <c r="G4" s="14" t="str">
+        <f>I1&amp;B4&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Ocean.webp</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:7">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14" t="str">
+        <f>H1&amp;B5&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Scenic/</v>
+      </c>
+      <c r="G5" s="14" t="str">
+        <f>I1&amp;B5&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Scenic.webp</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:7">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="str">
+        <f>H1&amp;B6&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/AI/</v>
+      </c>
+      <c r="G6" s="14" t="str">
+        <f>I1&amp;B6&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/AI.webp</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:7">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8">
+        <v>84</v>
+      </c>
+      <c r="E7" s="8">
+        <v>300</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f>H1&amp;B7&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Girl/</v>
+      </c>
+      <c r="G7" s="14" t="str">
+        <f>I1&amp;B7&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Girl.webp</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:7">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8">
+        <v>120</v>
+      </c>
+      <c r="E8" s="8">
+        <v>400</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f>H1&amp;B8&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Home/</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f>I1&amp;B8&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Home.webp</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:7">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f>H1&amp;B9&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Game/</v>
+      </c>
+      <c r="G9" s="14" t="str">
+        <f>I1&amp;B9&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Game.webp</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:7">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8">
+        <v>300</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f>H1&amp;B10&amp;"/"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Christmas/</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f>I1&amp;B10&amp;".webp"</f>
+        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Christmas.webp</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:7">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="36" spans="1:5">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <v>120</v>
-      </c>
-      <c r="D3" s="12" t="str">
-        <f>F1&amp;B3&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Animal/</v>
-      </c>
-      <c r="E3" s="12" t="str">
-        <f>G1&amp;B3&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Animal.webp</v>
-      </c>
-    </row>
-    <row r="4" ht="36" spans="1:5">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="str">
-        <f>F1&amp;B4&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Ocean/</v>
-      </c>
-      <c r="E4" s="12" t="str">
-        <f>G1&amp;B4&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Ocean.webp</v>
-      </c>
-    </row>
-    <row r="5" ht="36" spans="1:5">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f>F1&amp;B5&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Scenic/</v>
-      </c>
-      <c r="E5" s="12" t="str">
-        <f>G1&amp;B5&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Scenic.webp</v>
-      </c>
-    </row>
-    <row r="6" ht="36" spans="1:5">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12" t="str">
-        <f>F1&amp;B6&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/AI/</v>
-      </c>
-      <c r="E6" s="12" t="str">
-        <f>G1&amp;B6&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/AI.webp</v>
-      </c>
-    </row>
-    <row r="7" ht="36" spans="1:5">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10">
-        <v>84</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <f>F1&amp;B7&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Girl/</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <f>G1&amp;B7&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Girl.webp</v>
-      </c>
-    </row>
-    <row r="8" ht="36" spans="1:5">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10">
-        <v>120</v>
-      </c>
-      <c r="D8" s="12" t="str">
-        <f>F1&amp;B8&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Home/</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <f>G1&amp;B8&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Home.webp</v>
-      </c>
-    </row>
-    <row r="9" ht="36" spans="1:5">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <f>F1&amp;B9&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Game/</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <f>G1&amp;B9&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Game.webp</v>
-      </c>
-    </row>
-    <row r="10" ht="36" spans="1:5">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>84</v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <f>F1&amp;B10&amp;"/"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Christmas/</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f>G1&amp;B10&amp;".webp"</f>
-        <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/Christmas.webp</v>
-      </c>
-    </row>
-    <row r="11" ht="36" spans="1:5">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>96</v>
       </c>
-      <c r="D11" s="12" t="str">
-        <f>F1&amp;B11&amp;"/"</f>
+      <c r="E11" s="8">
+        <v>300</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>H1&amp;B11&amp;"/"</f>
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/GodJesus/</v>
       </c>
-      <c r="E11" s="12" t="str">
-        <f>G1&amp;B11&amp;".webp"</f>
+      <c r="G11" s="14" t="str">
+        <f>I1&amp;B11&amp;".webp"</f>
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/GodJesus.webp</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/"/>
-    <hyperlink ref="G1" r:id="rId2" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/"/>
+    <hyperlink ref="H1" r:id="rId1" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/"/>
+    <hyperlink ref="I1" r:id="rId2" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
